--- a/data/trans_orig/P45C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P45C-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75143957-69E8-4CD5-9399-5F4982110B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F0A6692-2488-43EB-9AAF-F095280D0249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06D6EB0D-D876-4C6B-9FBB-12FCF2E27004}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B341B2D6-CED2-4203-9056-626058B38282}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="569">
   <si>
     <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No</t>
@@ -77,28 +77,28 @@
     <t>82,69%</t>
   </si>
   <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>85,92%</t>
   </si>
   <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
   </si>
   <si>
     <t>Si sin ampollas</t>
@@ -107,1630 +107,1633 @@
     <t>15,68%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>6,24%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>Sí con ampollas</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>17,09%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>Sí con ampollas</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>85,99%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
   </si>
   <si>
     <t>10,28%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2015 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
   </si>
   <si>
     <t>1,71%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
   </si>
   <si>
     <t>2,33%</t>
@@ -2154,7 +2157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183D10C5-39C5-4358-9E93-F9168DB25AA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CF091A-D91B-4F8E-8970-495D6B66874E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2592,7 +2595,7 @@
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2601,13 +2604,13 @@
         <v>965</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2616,13 +2619,13 @@
         <v>1913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2678,7 +2681,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2690,13 +2693,13 @@
         <v>799059</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>795</v>
@@ -2705,13 +2708,13 @@
         <v>852538</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>1541</v>
@@ -2720,7 +2723,7 @@
         <v>1651597</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>70</v>
@@ -2744,10 +2747,10 @@
         <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>96</v>
@@ -2756,13 +2759,13 @@
         <v>97410</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>230</v>
@@ -2771,13 +2774,13 @@
         <v>242964</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,13 +2795,13 @@
         <v>13915</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -2807,13 +2810,13 @@
         <v>14915</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -2822,13 +2825,13 @@
         <v>28830</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2884,7 +2887,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2896,13 +2899,13 @@
         <v>578276</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
         <v>593</v>
@@ -2911,13 +2914,13 @@
         <v>583362</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>1140</v>
@@ -2926,13 +2929,13 @@
         <v>1161638</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2950,13 @@
         <v>80503</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>83</v>
@@ -2962,13 +2965,13 @@
         <v>81322</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>159</v>
@@ -2977,13 +2980,13 @@
         <v>161825</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3001,13 @@
         <v>18918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -3013,13 +3016,13 @@
         <v>17496</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -3028,13 +3031,13 @@
         <v>36414</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,7 +3093,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3102,13 +3105,13 @@
         <v>798643</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>854</v>
@@ -3117,13 +3120,13 @@
         <v>892753</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>1691</v>
@@ -3132,13 +3135,13 @@
         <v>1691396</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,13 +3156,13 @@
         <v>121520</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H21" s="7">
         <v>118</v>
@@ -3168,13 +3171,13 @@
         <v>119877</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M21" s="7">
         <v>253</v>
@@ -3183,13 +3186,13 @@
         <v>241397</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3207,13 @@
         <v>19482</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -3219,13 +3222,13 @@
         <v>22976</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -3234,13 +3237,13 @@
         <v>42458</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3311,13 @@
         <v>2755397</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>2868</v>
@@ -3323,13 +3326,13 @@
         <v>2952057</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>5568</v>
@@ -3338,13 +3341,13 @@
         <v>5707455</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3362,13 @@
         <v>458326</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>366</v>
@@ -3374,13 +3377,13 @@
         <v>362591</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>820</v>
@@ -3389,13 +3392,13 @@
         <v>820917</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3413,13 @@
         <v>55141</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -3425,13 +3428,13 @@
         <v>56351</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>107</v>
@@ -3440,13 +3443,13 @@
         <v>111492</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,7 +3505,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3523,7 +3526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC4B0BEE-B9BD-4F53-B136-5C54437EA1CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F68EC1-DC2E-416D-8E34-9A03439B6009}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3540,7 +3543,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3647,13 +3650,13 @@
         <v>85664</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>84</v>
@@ -3662,13 +3665,13 @@
         <v>94582</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>174</v>
@@ -3677,13 +3680,13 @@
         <v>180246</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3701,13 @@
         <v>24015</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -3713,13 +3716,13 @@
         <v>14246</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -3728,13 +3731,13 @@
         <v>38261</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3752,13 @@
         <v>3281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -3764,13 +3767,13 @@
         <v>2028</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -3779,13 +3782,13 @@
         <v>5309</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3856,13 @@
         <v>488059</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="H8" s="7">
         <v>478</v>
@@ -3868,13 +3871,13 @@
         <v>506153</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>930</v>
@@ -3883,13 +3886,13 @@
         <v>994213</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3907,13 @@
         <v>86901</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>198</v>
+        <v>133</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H9" s="7">
         <v>61</v>
@@ -3919,13 +3922,13 @@
         <v>65613</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="M9" s="7">
         <v>148</v>
@@ -3934,13 +3937,13 @@
         <v>152515</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>203</v>
+        <v>73</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3958,13 @@
         <v>9894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>212</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3970,13 +3973,13 @@
         <v>12339</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -3985,13 +3988,13 @@
         <v>22234</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,7 +4050,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4059,13 +4062,13 @@
         <v>847425</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H12" s="7">
         <v>809</v>
@@ -4074,13 +4077,13 @@
         <v>890464</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M12" s="7">
         <v>1585</v>
@@ -4089,13 +4092,13 @@
         <v>1737889</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,28 +4113,28 @@
         <v>146840</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
         <v>107</v>
       </c>
       <c r="I13" s="7">
-        <v>115807</v>
+        <v>115806</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>246</v>
@@ -4140,13 +4143,13 @@
         <v>262647</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4161,13 +4164,13 @@
         <v>13800</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -4176,13 +4179,13 @@
         <v>14878</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>59</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -4191,13 +4194,13 @@
         <v>28678</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>239</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,7 +4227,7 @@
         <v>930</v>
       </c>
       <c r="I15" s="7">
-        <v>1021149</v>
+        <v>1021148</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -4253,7 +4256,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4265,13 +4268,13 @@
         <v>613780</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
         <v>592</v>
@@ -4280,28 +4283,28 @@
         <v>657927</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>243</v>
+        <v>66</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>1145</v>
       </c>
       <c r="N16" s="7">
-        <v>1271708</v>
+        <v>1271707</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4319,13 @@
         <v>125212</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7">
         <v>98</v>
@@ -4331,13 +4334,13 @@
         <v>103685</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>216</v>
@@ -4346,13 +4349,13 @@
         <v>228897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4367,13 +4370,13 @@
         <v>10330</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -4382,13 +4385,13 @@
         <v>6014</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -4397,13 +4400,13 @@
         <v>16344</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,7 +4448,7 @@
         <v>1377</v>
       </c>
       <c r="N19" s="7">
-        <v>1516949</v>
+        <v>1516948</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -4459,7 +4462,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4471,13 +4474,13 @@
         <v>766213</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>854</v>
@@ -4486,13 +4489,13 @@
         <v>899611</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M20" s="7">
         <v>1582</v>
@@ -4501,13 +4504,13 @@
         <v>1665824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4525,13 @@
         <v>170925</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H21" s="7">
         <v>117</v>
@@ -4537,13 +4540,13 @@
         <v>119078</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>273</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M21" s="7">
         <v>288</v>
@@ -4552,13 +4555,13 @@
         <v>290003</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>275</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4573,13 +4576,13 @@
         <v>6707</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -4588,13 +4591,13 @@
         <v>21001</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>161</v>
+        <v>283</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -4606,10 +4609,10 @@
         <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4680,13 @@
         <v>2801143</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H24" s="7">
         <v>2817</v>
@@ -4692,28 +4695,28 @@
         <v>3048737</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M24" s="7">
         <v>5416</v>
       </c>
       <c r="N24" s="7">
-        <v>5849880</v>
+        <v>5849879</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4731,13 @@
         <v>553893</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H25" s="7">
         <v>395</v>
@@ -4743,13 +4746,13 @@
         <v>418430</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="M25" s="7">
         <v>936</v>
@@ -4758,13 +4761,13 @@
         <v>972323</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>27</v>
+        <v>301</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4782,13 @@
         <v>44012</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>303</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H26" s="7">
         <v>53</v>
@@ -4794,13 +4797,13 @@
         <v>56260</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>95</v>
@@ -4809,13 +4812,13 @@
         <v>100272</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,7 +4860,7 @@
         <v>6447</v>
       </c>
       <c r="N27" s="7">
-        <v>6922475</v>
+        <v>6922474</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>38</v>
@@ -4871,7 +4874,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4892,7 +4895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BCA7B3-D5F9-4E07-A164-A4EDB93AA718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307DA42E-C28C-48B2-8AF0-2A319A1CE422}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4909,7 +4912,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5016,13 +5019,13 @@
         <v>111535</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H4" s="7">
         <v>108</v>
@@ -5031,13 +5034,13 @@
         <v>107122</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M4" s="7">
         <v>216</v>
@@ -5046,13 +5049,13 @@
         <v>218657</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5070,13 @@
         <v>4018</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5082,13 +5085,13 @@
         <v>4446</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>317</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -5097,13 +5100,13 @@
         <v>8464</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5121,13 @@
         <v>993</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -5133,13 +5136,13 @@
         <v>1792</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -5148,13 +5151,13 @@
         <v>2785</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,13 +5225,13 @@
         <v>507110</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7">
         <v>501</v>
@@ -5237,13 +5240,13 @@
         <v>511587</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>993</v>
@@ -5252,13 +5255,13 @@
         <v>1018697</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5273,13 +5276,13 @@
         <v>43965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H9" s="7">
         <v>41</v>
@@ -5288,13 +5291,13 @@
         <v>39583</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>102</v>
+        <v>346</v>
       </c>
       <c r="M9" s="7">
         <v>81</v>
@@ -5303,13 +5306,13 @@
         <v>83548</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,13 +5327,13 @@
         <v>5198</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5339,13 +5342,13 @@
         <v>5502</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>88</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5354,13 +5357,13 @@
         <v>10700</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5416,7 +5419,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5428,13 +5431,13 @@
         <v>880911</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>356</v>
       </c>
       <c r="H12" s="7">
         <v>849</v>
@@ -5443,13 +5446,13 @@
         <v>910124</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>358</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M12" s="7">
         <v>1675</v>
@@ -5458,13 +5461,13 @@
         <v>1791035</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5482,13 @@
         <v>124454</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -5494,13 +5497,13 @@
         <v>113341</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M13" s="7">
         <v>222</v>
@@ -5509,13 +5512,13 @@
         <v>237795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5533,13 @@
         <v>7278</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -5545,13 +5548,13 @@
         <v>12911</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>161</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -5560,13 +5563,13 @@
         <v>20188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>347</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>322</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,7 +5625,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5634,13 +5637,13 @@
         <v>632721</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H16" s="7">
         <v>591</v>
@@ -5649,13 +5652,13 @@
         <v>635244</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>1173</v>
@@ -5664,13 +5667,13 @@
         <v>1267966</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5688,13 @@
         <v>104335</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="H17" s="7">
         <v>127</v>
@@ -5700,13 +5703,13 @@
         <v>130126</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>222</v>
@@ -5715,13 +5718,13 @@
         <v>234461</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>130</v>
+        <v>394</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5739,13 @@
         <v>12083</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -5751,13 +5754,13 @@
         <v>10166</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>393</v>
+        <v>264</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -5766,13 +5769,13 @@
         <v>22249</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,7 +5817,7 @@
         <v>1415</v>
       </c>
       <c r="N19" s="7">
-        <v>1524676</v>
+        <v>1524675</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -5828,7 +5831,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5843,10 +5846,10 @@
         <v>40</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="H20" s="7">
         <v>803</v>
@@ -5855,13 +5858,13 @@
         <v>876685</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>401</v>
+        <v>153</v>
       </c>
       <c r="M20" s="7">
         <v>1576</v>
@@ -5870,13 +5873,13 @@
         <v>1656525</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>17</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5894,13 @@
         <v>145578</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="H21" s="7">
         <v>140</v>
@@ -5906,13 +5909,13 @@
         <v>150427</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M21" s="7">
         <v>286</v>
@@ -5921,13 +5924,13 @@
         <v>296005</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5945,13 @@
         <v>5252</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -5957,13 +5960,13 @@
         <v>9153</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>415</v>
+        <v>321</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -5972,13 +5975,13 @@
         <v>14405</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,13 +6049,13 @@
         <v>2912118</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>290</v>
+        <v>426</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="H24" s="7">
         <v>2852</v>
@@ -6061,13 +6064,13 @@
         <v>3040762</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>215</v>
+        <v>428</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>422</v>
+        <v>177</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M24" s="7">
         <v>5633</v>
@@ -6076,13 +6079,13 @@
         <v>5952880</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6100,13 @@
         <v>422351</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>229</v>
+        <v>434</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="H25" s="7">
         <v>425</v>
@@ -6112,13 +6115,13 @@
         <v>437923</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>430</v>
+        <v>231</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>431</v>
+        <v>108</v>
       </c>
       <c r="M25" s="7">
         <v>820</v>
@@ -6127,13 +6130,13 @@
         <v>860274</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6151,13 @@
         <v>30803</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>436</v>
+        <v>264</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
       <c r="H26" s="7">
         <v>38</v>
@@ -6163,13 +6166,13 @@
         <v>39523</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>374</v>
       </c>
       <c r="M26" s="7">
         <v>66</v>
@@ -6178,13 +6181,13 @@
         <v>70326</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>87</v>
+        <v>441</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>36</v>
+        <v>260</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>440</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,7 +6243,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6261,7 +6264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A41D50-1F36-4B43-B34F-79E9865593CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274F56F7-DFD4-462A-B704-DC22DFD391D8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6278,7 +6281,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6385,13 +6388,13 @@
         <v>87874</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H4" s="7">
         <v>226</v>
@@ -6400,13 +6403,13 @@
         <v>119435</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M4" s="7">
         <v>329</v>
@@ -6415,13 +6418,13 @@
         <v>207309</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>449</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,13 +6439,13 @@
         <v>13617</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -6451,13 +6454,13 @@
         <v>11298</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -6466,13 +6469,13 @@
         <v>24915</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>457</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,7 +6496,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>417</v>
+        <v>353</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6508,7 +6511,7 @@
         <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6660,10 +6663,10 @@
         <v>473</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M9" s="7">
         <v>252</v>
@@ -6693,13 +6696,13 @@
         <v>6681</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>300</v>
+        <v>478</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -6708,13 +6711,13 @@
         <v>13162</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -6723,7 +6726,7 @@
         <v>19842</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>482</v>
+        <v>304</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>483</v>
@@ -6785,7 +6788,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6797,7 +6800,7 @@
         <v>885926</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>485</v>
@@ -6848,13 +6851,13 @@
         <v>133909</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>365</v>
+        <v>493</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H13" s="7">
         <v>174</v>
@@ -6863,13 +6866,13 @@
         <v>142958</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M13" s="7">
         <v>293</v>
@@ -6878,13 +6881,13 @@
         <v>276867</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>159</v>
+        <v>499</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6899,13 +6902,13 @@
         <v>18267</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>298</v>
+        <v>502</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -6914,13 +6917,13 @@
         <v>17378</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -6929,13 +6932,13 @@
         <v>35645</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>108</v>
+        <v>508</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>504</v>
+        <v>215</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6991,7 +6994,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7003,13 +7006,13 @@
         <v>589241</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="H16" s="7">
         <v>921</v>
@@ -7018,13 +7021,13 @@
         <v>771129</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="M16" s="7">
         <v>1488</v>
@@ -7033,13 +7036,13 @@
         <v>1360370</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7054,13 +7057,13 @@
         <v>121091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="H17" s="7">
         <v>102</v>
@@ -7069,13 +7072,13 @@
         <v>84306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="M17" s="7">
         <v>196</v>
@@ -7084,13 +7087,13 @@
         <v>205398</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>521</v>
+        <v>155</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7105,13 +7108,13 @@
         <v>15967</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>524</v>
+        <v>377</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>525</v>
+        <v>425</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -7120,13 +7123,13 @@
         <v>18126</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>414</v>
+        <v>218</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -7135,7 +7138,7 @@
         <v>34093</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>528</v>
+        <v>89</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>529</v>
@@ -7197,7 +7200,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7212,7 +7215,7 @@
         <v>531</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>532</v>
@@ -7281,7 +7284,7 @@
         <v>542</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>543</v>
+        <v>434</v>
       </c>
       <c r="M21" s="7">
         <v>234</v>
@@ -7290,13 +7293,13 @@
         <v>230253</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>544</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7311,13 +7314,13 @@
         <v>16717</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -7326,13 +7329,13 @@
         <v>7144</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>436</v>
+        <v>548</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>262</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>414</v>
+        <v>218</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -7341,13 +7344,13 @@
         <v>23861</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>549</v>
+        <v>420</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,7 +7418,7 @@
         <v>2805166</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>171</v>
+        <v>549</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>550</v>
@@ -7433,7 +7436,7 @@
         <v>552</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>553</v>
@@ -7445,13 +7448,13 @@
         <v>6108188</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,13 +7469,13 @@
         <v>515170</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="H25" s="7">
         <v>557</v>
@@ -7481,13 +7484,13 @@
         <v>445638</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>365</v>
+        <v>493</v>
       </c>
       <c r="M25" s="7">
         <v>1006</v>
@@ -7517,13 +7520,13 @@
         <v>57631</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>352</v>
+        <v>564</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>300</v>
+        <v>478</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H26" s="7">
         <v>70</v>
@@ -7532,13 +7535,13 @@
         <v>55810</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>525</v>
+        <v>425</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M26" s="7">
         <v>120</v>
@@ -7547,13 +7550,13 @@
         <v>113441</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>135</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7609,7 +7612,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P45C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P45C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F0A6692-2488-43EB-9AAF-F095280D0249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51604D36-3DE6-4873-BBFD-9F01D16FD4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B341B2D6-CED2-4203-9056-626058B38282}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{35C46BBB-D9D9-43F2-B5AF-E97B99E0070B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="567">
   <si>
     <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2007 (Tasa respuesta: 99,75%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>82,69%</t>
   </si>
   <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
   </si>
   <si>
     <t>85,92%</t>
   </si>
   <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
   </si>
   <si>
     <t>Si sin ampollas</t>
@@ -107,28 +107,28 @@
     <t>15,68%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
   </si>
   <si>
     <t>13,25%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
   </si>
   <si>
     <t>Sí con ampollas</t>
@@ -140,1612 +140,1606 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2012 (Tasa respuesta: 99,08%)</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2016 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2012 (Tasa respuesta: 99,08%)</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2016 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>Población según según si ha sufrido a lo largo de este último año alguna quemadura solar en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
     <t>83,04%</t>
   </si>
   <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
   </si>
   <si>
     <t>86,82%</t>
   </si>
   <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
+    <t>16,77%</t>
   </si>
   <si>
     <t>11,71%</t>
   </si>
   <si>
-    <t>10,28%</t>
+    <t>10,5%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>1,71%</t>
   </si>
   <si>
-    <t>2,33%</t>
+    <t>2,26%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
+    <t>1,92%</t>
   </si>
 </sst>
 </file>
@@ -2157,7 +2151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CF091A-D91B-4F8E-8970-495D6B66874E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61CB7F1-E801-4408-8E5F-8BAD399BABA5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2553,13 +2547,13 @@
         <v>51832</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>148</v>
@@ -2568,13 +2562,13 @@
         <v>144496</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2583,13 @@
         <v>948</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2604,13 +2598,13 @@
         <v>965</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2619,13 +2613,13 @@
         <v>1913</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,7 +2675,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2693,13 +2687,13 @@
         <v>799059</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>795</v>
@@ -2708,13 +2702,13 @@
         <v>852538</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>1541</v>
@@ -2723,7 +2717,7 @@
         <v>1651597</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>70</v>
@@ -2920,7 +2914,7 @@
         <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="M16" s="7">
         <v>1140</v>
@@ -2929,13 +2923,13 @@
         <v>1161638</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,13 +2944,13 @@
         <v>80503</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>83</v>
@@ -2965,13 +2959,13 @@
         <v>81322</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>159</v>
@@ -2980,13 +2974,13 @@
         <v>161825</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +2995,13 @@
         <v>18918</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H18" s="7">
         <v>18</v>
@@ -3016,13 +3010,13 @@
         <v>17496</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -3031,13 +3025,13 @@
         <v>36414</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,7 +3087,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3105,13 +3099,13 @@
         <v>798643</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>854</v>
@@ -3120,13 +3114,13 @@
         <v>892753</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>1691</v>
@@ -3135,10 +3129,10 @@
         <v>1691396</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>126</v>
@@ -3377,13 +3371,13 @@
         <v>362591</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>820</v>
@@ -3392,13 +3386,13 @@
         <v>820917</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3407,13 @@
         <v>55141</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>164</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -3428,13 +3422,13 @@
         <v>56351</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M26" s="7">
         <v>107</v>
@@ -3443,13 +3437,13 @@
         <v>111492</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,7 +3499,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3526,7 +3520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F68EC1-DC2E-416D-8E34-9A03439B6009}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6028AA-DCEB-4587-9F76-248B3DD3DBA1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3543,7 +3537,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3650,13 +3644,13 @@
         <v>85664</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H4" s="7">
         <v>84</v>
@@ -3665,13 +3659,13 @@
         <v>94582</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>174</v>
@@ -3680,13 +3674,13 @@
         <v>180246</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3695,13 @@
         <v>24015</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -3716,13 +3710,13 @@
         <v>14246</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>38</v>
@@ -3731,13 +3725,13 @@
         <v>38261</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3746,13 @@
         <v>3281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -3767,13 +3761,13 @@
         <v>2028</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -3782,13 +3776,13 @@
         <v>5309</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>59</v>
+        <v>194</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3850,13 @@
         <v>488059</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H8" s="7">
         <v>478</v>
@@ -3871,13 +3865,13 @@
         <v>506153</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M8" s="7">
         <v>930</v>
@@ -3886,13 +3880,13 @@
         <v>994213</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3901,13 @@
         <v>86901</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H9" s="7">
         <v>61</v>
@@ -3922,13 +3916,13 @@
         <v>65613</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M9" s="7">
         <v>148</v>
@@ -3937,13 +3931,13 @@
         <v>152515</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>73</v>
+        <v>210</v>
       </c>
       <c r="P9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3958,13 +3952,13 @@
         <v>9894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3973,13 +3967,13 @@
         <v>12339</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>215</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -3988,13 +3982,13 @@
         <v>22234</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,7 +4044,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4062,13 +4056,13 @@
         <v>847425</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H12" s="7">
         <v>809</v>
@@ -4077,13 +4071,13 @@
         <v>890464</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M12" s="7">
         <v>1585</v>
@@ -4092,13 +4086,13 @@
         <v>1737889</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4113,28 +4107,28 @@
         <v>146840</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H13" s="7">
         <v>107</v>
       </c>
       <c r="I13" s="7">
-        <v>115806</v>
+        <v>115807</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>246</v>
@@ -4143,13 +4137,13 @@
         <v>262647</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,13 +4158,13 @@
         <v>13800</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -4179,10 +4173,10 @@
         <v>14878</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>241</v>
@@ -4200,7 +4194,7 @@
         <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,7 +4221,7 @@
         <v>930</v>
       </c>
       <c r="I15" s="7">
-        <v>1021148</v>
+        <v>1021149</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -4268,13 +4262,13 @@
         <v>613780</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>592</v>
@@ -4283,13 +4277,13 @@
         <v>657927</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>66</v>
+        <v>248</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>1145</v>
@@ -4298,13 +4292,13 @@
         <v>1271707</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>122</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,13 +4313,13 @@
         <v>125212</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>98</v>
@@ -4334,13 +4328,13 @@
         <v>103685</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>216</v>
@@ -4349,13 +4343,13 @@
         <v>228897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4370,13 +4364,13 @@
         <v>10330</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>170</v>
+        <v>262</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -4385,13 +4379,13 @@
         <v>6014</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>266</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -4400,13 +4394,13 @@
         <v>16344</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,7 +4456,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4474,13 +4468,13 @@
         <v>766213</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H20" s="7">
         <v>854</v>
@@ -4489,13 +4483,13 @@
         <v>899611</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>1582</v>
@@ -4504,13 +4498,13 @@
         <v>1665824</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,13 +4519,13 @@
         <v>170925</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H21" s="7">
         <v>117</v>
@@ -4540,13 +4534,13 @@
         <v>119078</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>234</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M21" s="7">
         <v>288</v>
@@ -4555,13 +4549,13 @@
         <v>290003</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>50</v>
+        <v>283</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,13 +4570,13 @@
         <v>6707</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H22" s="7">
         <v>20</v>
@@ -4591,13 +4585,13 @@
         <v>21001</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -4606,13 +4600,13 @@
         <v>27708</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4674,13 @@
         <v>2801143</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H24" s="7">
         <v>2817</v>
@@ -4695,28 +4689,28 @@
         <v>3048737</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>291</v>
+        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>5416</v>
       </c>
       <c r="N24" s="7">
-        <v>5849879</v>
+        <v>5849880</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4725,13 @@
         <v>553893</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H25" s="7">
         <v>395</v>
@@ -4746,13 +4740,13 @@
         <v>418430</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M25" s="7">
         <v>936</v>
@@ -4761,13 +4755,13 @@
         <v>972323</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4776,13 @@
         <v>44012</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>243</v>
+        <v>307</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="H26" s="7">
         <v>53</v>
@@ -4797,13 +4791,13 @@
         <v>56260</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>305</v>
+        <v>143</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="M26" s="7">
         <v>95</v>
@@ -4815,10 +4809,10 @@
         <v>81</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,7 +4854,7 @@
         <v>6447</v>
       </c>
       <c r="N27" s="7">
-        <v>6922474</v>
+        <v>6922475</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>38</v>
@@ -4874,7 +4868,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -4895,7 +4889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307DA42E-C28C-48B2-8AF0-2A319A1CE422}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10EF392A-BBD8-4EC4-99A6-A219ADF962A2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4912,7 +4906,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5019,13 +5013,13 @@
         <v>111535</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H4" s="7">
         <v>108</v>
@@ -5034,13 +5028,13 @@
         <v>107122</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>216</v>
@@ -5049,13 +5043,13 @@
         <v>218657</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5064,13 @@
         <v>4018</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5085,13 +5079,13 @@
         <v>4446</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>114</v>
+        <v>324</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>87</v>
+        <v>325</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -5100,13 +5094,13 @@
         <v>8464</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5121,13 +5115,13 @@
         <v>993</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -5136,13 +5130,13 @@
         <v>1792</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -5151,13 +5145,13 @@
         <v>2785</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>137</v>
+        <v>332</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5219,13 @@
         <v>507110</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H8" s="7">
         <v>501</v>
@@ -5240,13 +5234,13 @@
         <v>511587</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M8" s="7">
         <v>993</v>
@@ -5255,13 +5249,13 @@
         <v>1018697</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,13 +5270,13 @@
         <v>43965</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H9" s="7">
         <v>41</v>
@@ -5291,13 +5285,13 @@
         <v>39583</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M9" s="7">
         <v>81</v>
@@ -5306,13 +5300,13 @@
         <v>83548</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,13 +5321,13 @@
         <v>5198</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>353</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5342,13 +5336,13 @@
         <v>5502</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>88</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5357,13 +5351,13 @@
         <v>10700</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>353</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,7 +5413,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5431,13 +5425,13 @@
         <v>880911</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>356</v>
+        <v>14</v>
       </c>
       <c r="H12" s="7">
         <v>849</v>
@@ -5446,13 +5440,13 @@
         <v>910124</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>358</v>
+        <v>124</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M12" s="7">
         <v>1675</v>
@@ -5461,13 +5455,13 @@
         <v>1791035</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,13 +5476,13 @@
         <v>124454</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -5497,13 +5491,13 @@
         <v>113341</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>222</v>
@@ -5512,13 +5506,13 @@
         <v>237795</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5527,13 @@
         <v>7278</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -5548,13 +5542,13 @@
         <v>12911</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>17</v>
@@ -5563,13 +5557,13 @@
         <v>20188</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5631,13 @@
         <v>632721</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="H16" s="7">
         <v>591</v>
@@ -5652,7 +5646,7 @@
         <v>635244</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>382</v>
@@ -5703,13 +5697,13 @@
         <v>130126</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="M17" s="7">
         <v>222</v>
@@ -5718,13 +5712,13 @@
         <v>234461</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5733,13 @@
         <v>12083</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>396</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>398</v>
+        <v>144</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -5754,13 +5748,13 @@
         <v>10166</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M18" s="7">
         <v>20</v>
@@ -5769,13 +5763,13 @@
         <v>22249</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,7 +5811,7 @@
         <v>1415</v>
       </c>
       <c r="N19" s="7">
-        <v>1524675</v>
+        <v>1524676</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -5831,7 +5825,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5846,10 +5840,10 @@
         <v>40</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H20" s="7">
         <v>803</v>
@@ -5858,13 +5852,13 @@
         <v>876685</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>153</v>
+        <v>403</v>
       </c>
       <c r="M20" s="7">
         <v>1576</v>
@@ -5873,13 +5867,13 @@
         <v>1656525</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5888,13 @@
         <v>145578</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>411</v>
+        <v>27</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H21" s="7">
         <v>140</v>
@@ -5909,13 +5903,13 @@
         <v>150427</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>102</v>
+        <v>409</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M21" s="7">
         <v>286</v>
@@ -5924,13 +5918,13 @@
         <v>296005</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>417</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5939,13 @@
         <v>5252</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -5960,13 +5954,13 @@
         <v>9153</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>321</v>
+        <v>417</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>87</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -5975,13 +5969,13 @@
         <v>14405</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>237</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,13 +6043,13 @@
         <v>2912118</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="H24" s="7">
         <v>2852</v>
@@ -6064,13 +6058,13 @@
         <v>3040762</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>177</v>
+        <v>423</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>429</v>
+        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>5633</v>
@@ -6079,13 +6073,13 @@
         <v>5952880</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>431</v>
+        <v>276</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6094,13 @@
         <v>422351</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="H25" s="7">
         <v>425</v>
@@ -6115,13 +6109,13 @@
         <v>437923</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>231</v>
+        <v>430</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>108</v>
+        <v>431</v>
       </c>
       <c r="M25" s="7">
         <v>820</v>
@@ -6130,13 +6124,13 @@
         <v>860274</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,13 +6145,13 @@
         <v>30803</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>264</v>
+        <v>379</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>399</v>
+        <v>306</v>
       </c>
       <c r="H26" s="7">
         <v>38</v>
@@ -6166,13 +6160,13 @@
         <v>39523</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>440</v>
+        <v>194</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>374</v>
+        <v>35</v>
       </c>
       <c r="M26" s="7">
         <v>66</v>
@@ -6181,13 +6175,13 @@
         <v>70326</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>260</v>
+        <v>438</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,7 +6237,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -6264,7 +6258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274F56F7-DFD4-462A-B704-DC22DFD391D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6069D345-20FD-4FB9-B660-E35E59973761}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6281,7 +6275,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6388,13 +6382,13 @@
         <v>87874</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H4" s="7">
         <v>226</v>
@@ -6403,13 +6397,13 @@
         <v>119435</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>447</v>
+        <v>17</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M4" s="7">
         <v>329</v>
@@ -6418,13 +6412,13 @@
         <v>207309</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,13 +6433,13 @@
         <v>13617</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -6454,13 +6448,13 @@
         <v>11298</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M5" s="7">
         <v>31</v>
@@ -6469,13 +6463,13 @@
         <v>24915</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>187</v>
+        <v>455</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,7 +6490,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>353</v>
+        <v>457</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -6511,7 +6505,7 @@
         <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>440</v>
+        <v>194</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6526,7 +6520,7 @@
         <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6594,13 +6588,13 @@
         <v>416934</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="H8" s="7">
         <v>832</v>
@@ -6609,13 +6603,13 @@
         <v>478427</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>464</v>
+        <v>64</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M8" s="7">
         <v>1328</v>
@@ -6624,13 +6618,13 @@
         <v>895361</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6645,13 +6639,13 @@
         <v>123058</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H9" s="7">
         <v>146</v>
@@ -6660,13 +6654,13 @@
         <v>100319</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>105</v>
+        <v>471</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M9" s="7">
         <v>252</v>
@@ -6675,13 +6669,13 @@
         <v>223377</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6696,13 +6690,13 @@
         <v>6681</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -6714,10 +6708,10 @@
         <v>139</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>481</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M10" s="7">
         <v>23</v>
@@ -6726,13 +6720,13 @@
         <v>19842</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>304</v>
+        <v>480</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,7 +6782,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6800,13 +6794,13 @@
         <v>885926</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>294</v>
+        <v>483</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>486</v>
       </c>
       <c r="H12" s="7">
         <v>1319</v>
@@ -6815,13 +6809,13 @@
         <v>898312</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="M12" s="7">
         <v>2148</v>
@@ -6830,13 +6824,13 @@
         <v>1784238</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6851,13 +6845,13 @@
         <v>133909</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="H13" s="7">
         <v>174</v>
@@ -6866,13 +6860,13 @@
         <v>142958</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>496</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>497</v>
+        <v>433</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M13" s="7">
         <v>293</v>
@@ -6881,13 +6875,13 @@
         <v>276867</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6902,13 +6896,13 @@
         <v>18267</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>502</v>
+        <v>308</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>503</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>504</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -6917,13 +6911,13 @@
         <v>17378</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="M14" s="7">
         <v>37</v>
@@ -6932,13 +6926,13 @@
         <v>35645</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>309</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7006,13 +7000,13 @@
         <v>589241</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="H16" s="7">
         <v>921</v>
@@ -7021,13 +7015,13 @@
         <v>771129</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>514</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="M16" s="7">
         <v>1488</v>
@@ -7036,13 +7030,13 @@
         <v>1360370</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,13 +7051,13 @@
         <v>121091</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>520</v>
+        <v>431</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="H17" s="7">
         <v>102</v>
@@ -7072,13 +7066,13 @@
         <v>84306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="M17" s="7">
         <v>196</v>
@@ -7087,13 +7081,13 @@
         <v>205398</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>517</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7108,13 +7102,13 @@
         <v>15967</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>377</v>
+        <v>520</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>425</v>
+        <v>521</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -7126,10 +7120,10 @@
         <v>136</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>218</v>
+        <v>436</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="M18" s="7">
         <v>35</v>
@@ -7138,13 +7132,13 @@
         <v>34093</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
+        <v>524</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>529</v>
+        <v>167</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7200,7 +7194,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7212,13 +7206,13 @@
         <v>825191</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H20" s="7">
         <v>1433</v>
@@ -7227,13 +7221,13 @@
         <v>1035719</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="M20" s="7">
         <v>2308</v>
@@ -7242,13 +7236,13 @@
         <v>1860909</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,13 +7257,13 @@
         <v>123496</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H21" s="7">
         <v>118</v>
@@ -7278,13 +7272,13 @@
         <v>106757</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>434</v>
+        <v>540</v>
       </c>
       <c r="M21" s="7">
         <v>234</v>
@@ -7293,13 +7287,13 @@
         <v>230253</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7314,13 +7308,13 @@
         <v>16717</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>285</v>
+        <v>437</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>547</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -7329,13 +7323,13 @@
         <v>7144</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>218</v>
+        <v>416</v>
       </c>
       <c r="M22" s="7">
         <v>25</v>
@@ -7344,13 +7338,13 @@
         <v>23861</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>546</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7418,13 +7412,13 @@
         <v>2805166</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="H24" s="7">
         <v>4731</v>
@@ -7433,10 +7427,10 @@
         <v>3303022</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>553</v>
@@ -7448,7 +7442,7 @@
         <v>6108188</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>152</v>
+        <v>386</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>554</v>
@@ -7472,10 +7466,10 @@
         <v>556</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="H25" s="7">
         <v>557</v>
@@ -7484,13 +7478,13 @@
         <v>445638</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>560</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M25" s="7">
         <v>1006</v>
@@ -7499,13 +7493,13 @@
         <v>960809</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7520,13 +7514,13 @@
         <v>57631</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="H26" s="7">
         <v>70</v>
@@ -7535,13 +7529,13 @@
         <v>55810</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>567</v>
+        <v>291</v>
       </c>
       <c r="M26" s="7">
         <v>120</v>
@@ -7550,13 +7544,13 @@
         <v>113441</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7612,7 +7606,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
